--- a/Grid_vulnerability/powersystem/index/Angle_critical_CPF.xlsx
+++ b/Grid_vulnerability/powersystem/index/Angle_critical_CPF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation thesis\Grid_vulnerability\powersystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Graduation thesis\Grid_vulnerability\powersystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -348,15 +348,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.11905201959622155</v>
+        <v>-0.98737234158880949</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-0.80705424219426625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.92394078782594069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-0.91617019236828812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.77502350741547288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.70720885817990564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-0.90247852586351229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.9529409183088895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1.015158700252843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.5712285294810977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-0.6157298500093954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-0.62754838317150918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-0.62932532893801219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-0.77475576292423975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-0.86222894975164976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-0.79654198587625402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-0.86260279117096639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-0.91129227057407503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-0.56970923955356623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-0.63569367569272517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-0.6621401896043434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-0.4328243632546005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-0.44304455728291914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-0.790572843104138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-0.74702862717092799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-0.79063683562957632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-0.88812844170833904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-0.621585064059898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-0.4941672011970209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-0.70584656364211862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-0.16047623413104509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-0.35779480336010638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-0.42740457129160914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-0.2214471421322661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-0.1041651457697037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-0.46877742823865548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-0.20455383013162826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-1.0328881648725565</v>
       </c>
     </row>
   </sheetData>
